--- a/data/expData.xlsx
+++ b/data/expData.xlsx
@@ -3603,7 +3603,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
